--- a/DestroyViruses/Assets/Tables/TableAircraft.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAircraft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9660"/>
+    <workbookView windowWidth="29655" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>icon</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>float</t>
@@ -87,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +100,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -108,10 +109,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,15 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +133,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -155,22 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,59 +222,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +444,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,22 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,41 +538,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1091,13 +1091,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">

--- a/DestroyViruses/Assets/Tables/TableAircraft.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAircraft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29655" windowHeight="17070"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,11 +87,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,11 +100,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,37 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,59 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +212,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -230,15 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +259,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,37 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,127 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,22 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,9 +542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,139 +568,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,116 +1059,118 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="31.625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2</v>
       </c>
     </row>
